--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2633.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2633.xlsx
@@ -354,7 +354,7 @@
         <v>1.599657143478424</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.6285339147924</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2633.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2633.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7970160919594538</v>
+        <v>1.232075572013855</v>
       </c>
       <c r="B1">
-        <v>1.599657143478424</v>
+        <v>2.318470001220703</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.275179862976074</v>
       </c>
       <c r="D1">
-        <v>1.6285339147924</v>
+        <v>2.102959394454956</v>
       </c>
       <c r="E1">
-        <v>0.8842095792765237</v>
+        <v>1.360849142074585</v>
       </c>
     </row>
   </sheetData>
